--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_network_resource" sheetId="5" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="bulkdel_network_account" sheetId="17" r:id="rId6"/>
     <sheet name="check_network_account" sheetId="18" r:id="rId7"/>
     <sheet name="query_network_account" sheetId="19" r:id="rId8"/>
+    <sheet name="query_network_resource" sheetId="20" r:id="rId9"/>
+    <sheet name="del_network_resource" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="164">
   <si>
     <t>测试点说明</t>
   </si>
@@ -564,6 +566,100 @@
   </si>
   <si>
     <t>单点登录代填名称和口令h3c账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要编辑的资源名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除H3C资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你确定要删除该选项吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_del_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>查询ROOT部门下所有资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_query_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询ROOT部门下及子部门下所有资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器及设备</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询RedHat类型名称包含123资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器及设备</t>
+  </si>
+  <si>
+    <t>查询Cisco类型所有资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源名称为H3C资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源IP为172.16.10.205</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源名称包含c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源名称包含H3C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -583,6 +679,7 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -591,6 +688,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -598,6 +696,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -606,11 +705,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -703,7 +804,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,7 +1156,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1126,7 +1230,7 @@
       <c r="C2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1176,8 +1280,8 @@
       <c r="C3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>116</v>
+      <c r="D3" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
@@ -1223,8 +1327,8 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>117</v>
+      <c r="C4" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>117</v>
@@ -1326,11 +1430,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1905,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2559,4 +2707,182 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="158">
   <si>
     <t>测试点说明</t>
   </si>
@@ -96,30 +96,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>要编辑的资源名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_del_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>你确定要删除该选项吗？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_bulkDel_006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_query_003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -243,9 +227,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_checkout_003</t>
-  </si>
-  <si>
     <t>172.16.10.30</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -306,18 +287,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_003</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_004</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_005</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_006</t>
-  </si>
-  <si>
     <t>no_pass</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -418,15 +387,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modLinux_007</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_008</t>
-  </si>
-  <si>
-    <t>test_F04_S03_modLinux_009</t>
-  </si>
-  <si>
     <t>密码长度超过64位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -561,10 +521,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_modNetwork_002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>单点登录代填名称和口令h3c账号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -585,26 +541,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_del_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>部门</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>资源类型1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源名称</t>
   </si>
   <si>
@@ -616,10 +556,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_query_003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>查询ROOT部门下及子部门下所有资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -660,6 +596,54 @@
   </si>
   <si>
     <t>华为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_modNetworkRes_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutNetworkRes_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_addNetworkResAccount_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delNetworkResAccount_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_bulkDelNetworkResAccount_006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutNetworkResAccount_007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryNetworkResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryNetworkRes_009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delNetworkRes_010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1153,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1181,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1193,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1222,22 +1206,22 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1252,42 +1236,42 @@
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1317,27 +1301,27 @@
         <v>18</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1367,62 +1351,8 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1435,10 +1365,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="1" t="s">
@@ -1448,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1456,16 +1392,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1478,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1490,11 +1426,16 @@
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="28.375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75">
@@ -1505,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1520,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1544,21 +1485,21 @@
         <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1579,22 +1520,22 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1605,25 +1546,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
     <col min="2" max="2" width="34.25" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="9" max="9" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,58 +1572,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1691,25 +1617,25 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1718,27 +1644,27 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1747,111 +1673,111 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="13">
         <v>1.23456789012345E+32</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -1863,50 +1789,50 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -1921,114 +1847,114 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="4" t="s">
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.25">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.25">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2037,7 +1963,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2053,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2065,7 +1991,7 @@
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="9" max="9" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
@@ -2076,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2099,22 +2025,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G2" s="5">
         <v>123</v>
@@ -2123,12 +2049,12 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -2140,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
@@ -2152,12 +2078,12 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -2169,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -2181,12 +2107,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2198,10 +2124,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2210,12 +2136,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2224,13 +2150,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2239,7 +2165,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2179,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2262,7 +2188,7 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -2273,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2284,19 +2210,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2310,15 +2236,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="4" max="4" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
@@ -2329,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2337,16 +2263,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2359,19 +2285,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
@@ -2382,19 +2309,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2402,16 +2329,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -2423,50 +2350,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2475,102 +2402,102 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2579,21 +2506,21 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5">
         <v>1.23456789012345E+32</v>
@@ -2605,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2619,15 +2546,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
@@ -2635,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2649,22 +2577,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2672,12 +2600,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -2685,12 +2613,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -2700,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2713,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2724,8 +2652,8 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
@@ -2733,19 +2661,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2753,132 +2681,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="add_network_resource" sheetId="5" r:id="rId1"/>
     <sheet name="edit_network_resource" sheetId="6" r:id="rId2"/>
-    <sheet name="check_network_resource" sheetId="10" r:id="rId3"/>
-    <sheet name="add_network_account" sheetId="14" r:id="rId4"/>
-    <sheet name="del_network_account" sheetId="16" r:id="rId5"/>
-    <sheet name="bulkdel_network_account" sheetId="17" r:id="rId6"/>
-    <sheet name="check_network_account" sheetId="18" r:id="rId7"/>
-    <sheet name="query_network_account" sheetId="19" r:id="rId8"/>
-    <sheet name="query_network_resource" sheetId="20" r:id="rId9"/>
+    <sheet name="query_network_resource" sheetId="20" r:id="rId3"/>
+    <sheet name="check_network_resource" sheetId="10" r:id="rId4"/>
+    <sheet name="add_network_account" sheetId="14" r:id="rId5"/>
+    <sheet name="del_network_account" sheetId="16" r:id="rId6"/>
+    <sheet name="bulkdel_network_account" sheetId="17" r:id="rId7"/>
+    <sheet name="check_network_account" sheetId="18" r:id="rId8"/>
+    <sheet name="query_network_account" sheetId="19" r:id="rId9"/>
     <sheet name="del_network_resource" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -603,10 +603,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_checkoutNetworkRes_003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -615,35 +611,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_addNetworkResAccount_004</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_delNetworkResAccount_005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_bulkDelNetworkResAccount_006</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_checkoutNetworkResAccount_007</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_queryNetworkResAccount_008</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>资源类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>test_F04_S03_queryNetworkRes_009</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_F04_S03_delNetworkRes_010</t>
+    <t>test_F04_S03_delNetworkRes_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutNetworkRes_004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryNetworkRes_003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delNetworkResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_bulkDelNetworkResAccount_008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_checkoutNetworkResAccount_010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_queryNetworkResAccount_011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_addNetworkResAccount_007</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1401,7 +1401,7 @@
         <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
@@ -1546,10 +1546,188 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="44.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25">
+      <c r="A8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25">
+      <c r="A9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1590,7 +1768,7 @@
         <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -1617,7 +1795,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -1644,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -1673,7 +1851,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -1702,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -1731,7 +1909,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -1760,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -1789,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -1818,7 +1996,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -1847,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -1876,7 +2054,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -1905,7 +2083,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
@@ -1934,7 +2112,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -1963,7 +2141,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1975,12 +2153,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2049,7 +2227,7 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2078,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2107,7 +2285,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2136,7 +2314,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2165,7 +2343,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2174,12 +2352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2222,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2231,12 +2409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2272,7 +2450,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2281,12 +2459,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2350,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2376,7 +2554,7 @@
         <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2402,7 +2580,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2428,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2454,7 +2632,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2480,7 +2658,7 @@
         <v>93</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2506,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
@@ -2532,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2541,12 +2719,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2587,7 +2765,7 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -2600,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -2613,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -2628,184 +2806,6 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="44.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="7" t="s">
         <v>156</v>
       </c>
     </row>

--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_network_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="159">
   <si>
     <t>测试点说明</t>
   </si>
@@ -407,14 +407,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>名称长度大于32位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>全选删除所有资源账号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -644,6 +636,42 @@
   </si>
   <si>
     <t>test_F04_S03_addNetworkResAccount_007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名称长度大于6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称不能大于64</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1206,22 +1234,22 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1236,42 +1264,42 @@
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1301,27 +1329,27 @@
         <v>18</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1351,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1384,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1392,16 +1420,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1485,21 +1513,21 @@
         <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1520,22 +1548,22 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1568,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1588,132 +1616,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1762,13 +1790,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -1795,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -1822,7 +1850,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -1851,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -1880,7 +1908,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -1909,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -1926,7 +1954,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>51</v>
@@ -1938,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -1967,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -1975,10 +2003,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>53</v>
@@ -1996,7 +2024,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2007,7 +2035,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>58</v>
@@ -2025,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2036,10 +2064,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>56</v>
@@ -2054,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2065,10 +2093,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -2083,7 +2111,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
@@ -2094,7 +2122,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -2112,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -2123,7 +2151,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>52</v>
@@ -2141,7 +2169,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2157,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2203,13 +2231,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
@@ -2218,7 +2246,7 @@
         <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5">
         <v>123</v>
@@ -2227,7 +2255,7 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2256,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2285,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2314,7 +2342,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2343,7 +2371,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2388,19 +2416,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2441,16 +2469,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2463,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2513,7 +2541,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>61</v>
@@ -2528,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2554,7 +2582,7 @@
         <v>85</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2580,7 +2608,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2606,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2632,7 +2660,7 @@
         <v>90</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2658,7 +2686,7 @@
         <v>93</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2684,15 +2712,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="9" t="s">
-        <v>97</v>
+      <c r="A9" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
@@ -2700,8 +2728,8 @@
       <c r="D9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="5">
-        <v>1.23456789012345E+32</v>
+      <c r="E9" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2710,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2755,17 +2783,17 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -2778,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -2791,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -2806,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_network_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="160">
   <si>
     <t>测试点说明</t>
   </si>
@@ -125,14 +125,6 @@
   </si>
   <si>
     <t>!@#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称超过32位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -672,6 +664,42 @@
   </si>
   <si>
     <t>名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资源名称超过6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -856,14 +884,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1234,22 +1262,22 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1264,42 +1292,42 @@
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1329,27 +1357,27 @@
         <v>18</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1379,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1420,16 +1448,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1513,21 +1541,21 @@
         <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -1548,22 +1576,22 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1596,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1616,132 +1644,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="15" t="s">
-        <v>128</v>
+      <c r="F8" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1754,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1784,37 +1812,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>51</v>
+      <c r="F2" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1823,15 +1851,15 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -1841,7 +1869,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1850,12 +1878,12 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
@@ -1864,13 +1892,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1879,27 +1907,27 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
+      <c r="A5" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1.23456789012345E+32</v>
+        <v>158</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
@@ -1908,27 +1936,27 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
@@ -1937,27 +1965,27 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
@@ -1966,24 +1994,24 @@
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -1995,27 +2023,27 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2024,21 +2052,21 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -2053,27 +2081,27 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
@@ -2082,27 +2110,27 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
@@ -2111,18 +2139,18 @@
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -2131,7 +2159,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
@@ -2140,27 +2168,27 @@
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2169,7 +2197,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2208,22 +2236,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2231,22 +2259,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5">
         <v>123</v>
@@ -2255,12 +2283,12 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -2272,7 +2300,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
@@ -2284,12 +2312,12 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -2301,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -2313,12 +2341,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2330,10 +2358,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2342,12 +2370,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2356,13 +2384,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2371,7 +2399,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2405,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2416,19 +2444,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2469,16 +2497,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2491,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2515,19 +2543,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2535,16 +2563,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -2556,50 +2584,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2608,102 +2636,102 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2712,24 +2740,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2738,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2769,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2783,22 +2811,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2806,12 +2834,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -2819,12 +2847,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -2834,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_network_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="168">
   <si>
     <t>测试点说明</t>
   </si>
@@ -407,26 +407,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.202</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.208</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.205</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>H3C</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>华为</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  telnet 登录模式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -451,10 +435,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>华为(172.16.10.205)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>huawei</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -473,10 +453,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Cisco</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Telnet</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -560,10 +536,6 @@
   </si>
   <si>
     <t>查询资源名称为H3C资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询资源IP为172.16.10.205</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -700,6 +672,118 @@
       </rPr>
       <t>位</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciscoyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3Cyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>华为y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H3C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yy</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.215</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>172.16.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>172.16.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为yy(172.16.10.217)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资源IP为172.16.10.217</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.217</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciscoyy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Cisco资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_F04_S03_delNetworkRes_005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为yy(172.16.10.217)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除华为资源</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1280,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1233,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1262,7 +1346,7 @@
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -1271,13 +1355,13 @@
         <v>96</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1292,42 +1376,42 @@
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>98</v>
+      <c r="F3" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1357,27 +1441,27 @@
         <v>18</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>101</v>
+        <v>134</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>99</v>
+      <c r="F4" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1407,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1440,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1448,16 +1532,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1470,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1517,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1541,24 +1653,24 @@
         <v>17</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>108</v>
+      <c r="C2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -1576,22 +1688,22 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1624,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1644,132 +1756,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1782,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1818,13 +1930,13 @@
         <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -1851,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -1878,7 +1990,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -1907,18 +2019,18 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>50</v>
@@ -1936,7 +2048,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -1965,7 +2077,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -1982,7 +2094,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>49</v>
@@ -1994,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2023,7 +2135,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2031,10 +2143,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>51</v>
@@ -2052,7 +2164,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2063,7 +2175,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>56</v>
@@ -2081,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2092,10 +2204,10 @@
         <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>54</v>
@@ -2110,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2121,10 +2233,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -2139,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
@@ -2150,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -2168,7 +2280,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -2179,7 +2291,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
@@ -2197,7 +2309,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +2326,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2259,13 +2371,13 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
@@ -2274,7 +2386,7 @@
         <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G2" s="5">
         <v>123</v>
@@ -2283,7 +2395,7 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2312,7 +2424,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2341,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2370,7 +2482,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2399,7 +2511,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2525,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2444,19 +2556,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2582,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2502,11 +2614,11 @@
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2632,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2568,8 +2680,8 @@
       <c r="B2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>59</v>
@@ -2584,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2610,7 +2722,7 @@
         <v>83</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2636,7 +2748,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2662,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2688,7 +2800,7 @@
         <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2714,7 +2826,7 @@
         <v>91</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2740,15 +2852,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
@@ -2757,7 +2869,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2766,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +2892,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2811,17 +2923,17 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -2834,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -2847,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -2862,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/testData/network_resource_test_data.xlsx
+++ b/testData/network_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_network_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="167">
   <si>
     <t>测试点说明</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>【IP】不能为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IP为空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -148,10 +144,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>IP地址输入不正确，请重新输入!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不勾选运维协议</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -408,10 +400,6 @@
   </si>
   <si>
     <t>H3C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  telnet 登录模式</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -784,6 +772,14 @@
   </si>
   <si>
     <t>删除华为资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>【地址】不能为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址输入不正确，请重新输入!</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1277,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1290,11 +1286,11 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="30.625" customWidth="1"/>
     <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="15" width="32.375" customWidth="1"/>
-    <col min="16" max="16" width="42.375" customWidth="1"/>
+    <col min="7" max="14" width="32.375" customWidth="1"/>
+    <col min="15" max="15" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,51 +1313,48 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.25">
+    <row r="2" spans="1:15" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>13</v>
@@ -1369,55 +1362,52 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
-        <v>1</v>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.25">
+        <v>99</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5">
-        <v>2</v>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>18</v>
@@ -1437,37 +1427,34 @@
       <c r="N3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.25">
+      <c r="O3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>18</v>
@@ -1487,11 +1474,8 @@
       <c r="N4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>115</v>
+      <c r="O4" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1532,44 +1516,44 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1580,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1595,18 +1579,17 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,45 +1612,42 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.25">
+      <c r="O1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -1678,32 +1658,29 @@
       <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1736,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -1756,132 +1733,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1894,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1924,19 +1901,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
@@ -1948,13 +1925,13 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1963,15 +1940,15 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -1981,7 +1958,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -1990,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2004,13 +1981,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -2019,27 +1996,27 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>18</v>
@@ -2048,27 +2025,27 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>18</v>
@@ -2077,27 +2054,27 @@
         <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>18</v>
@@ -2106,24 +2083,24 @@
         <v>18</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2135,27 +2112,27 @@
         <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>18</v>
@@ -2164,21 +2141,21 @@
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -2193,27 +2170,27 @@
         <v>18</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>18</v>
@@ -2222,27 +2199,27 @@
         <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>18</v>
@@ -2251,18 +2228,18 @@
         <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>24</v>
@@ -2271,7 +2248,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
@@ -2280,27 +2257,27 @@
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="5">
         <v>123</v>
@@ -2309,7 +2286,7 @@
         <v>321</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2348,22 +2325,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2371,22 +2348,22 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G2" s="5">
         <v>123</v>
@@ -2395,12 +2372,12 @@
         <v>123</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -2412,7 +2389,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>18</v>
@@ -2424,12 +2401,12 @@
         <v>15</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -2441,7 +2418,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -2453,12 +2430,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -2470,10 +2447,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2482,12 +2459,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -2496,13 +2473,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2511,7 +2488,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2545,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2556,19 +2533,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2609,16 +2586,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2655,19 +2632,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2675,16 +2652,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -2696,50 +2673,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2748,102 +2725,102 @@
         <v>18</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2852,24 +2829,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2878,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2909,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2923,22 +2900,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2946,12 +2923,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -2959,12 +2936,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -2974,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
